--- a/classe.xlsx
+++ b/classe.xlsx
@@ -28,14 +28,17 @@
   <connection id="1" name="MappageClasse" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\chisda\Desktop\SAM_SIM\Session2_Monosim\MappageClasse.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="MappageXml" type="4" refreshedVersion="0" background="1">
+  <connection id="2" name="MappageClasse1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\chisda\Desktop\SAM_SIM\Session2_Monosim\MappageClasse.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="MappageXml" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\chisda\Desktop\SAM_SIM\Session2_Monosim\MappageXml.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>Classe</t>
   </si>
@@ -157,26 +160,199 @@
     <t>prêt</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dVie/niv</t>
   </si>
   <si>
-    <t>***</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Un combattant brutal qui provient des frontières de la civilisation.</t>
+  </si>
+  <si>
+    <t>À la fois lanceur de sorts vénérant la nature,ami des animaux et
+métamorphe doué.</t>
+  </si>
+  <si>
+    <t>Un lanceur de sorts venu au monde avec un don inné pour la magie,
+qui possède d’étranges et mystérieux pouvoirs.</t>
+  </si>
+  <si>
+    <t>Utilise ses capacités ainsi que ses sorts pour donner du courage à
+ses alliés,troubler ses ennemis et se construire une réputation.</t>
+  </si>
+  <si>
+    <t>Un maître en matière d’armes et d’armures de toutes sortes à la fois
+courageux et vaillant.</t>
+  </si>
+  <si>
+    <t>À force d'étudier sans cesse, parvient à maîtriser la magie et acquiert d'incroyables pouvoirs.</t>
+  </si>
+  <si>
+    <t>Étudie les arts martiaux et s’entraîne à faire de son corps sa
+meilleure arme et sa meilleure défense.</t>
+  </si>
+  <si>
+    <t>Un chevalier à l’armure étincelante,un individu dévoué à la loi et
+au bien.</t>
+  </si>
+  <si>
+    <t>Fidèle et dévoué à son dieu, peut soigner les blessures, ramener les morts à la vie et attirer sur
+ses ennemis les foudres divines.</t>
+  </si>
+  <si>
+    <t>À la fois pisteur et chasseur, une créature des étendues sauvages qui excelle lorsqu’il s’agit de
+débusquer ses ennemis jurés.</t>
+  </si>
+  <si>
+    <t>À la fois voleur et éclaireur, un opportuniste capable de porter des coups terribles contre les ennemis qu’il parvient à surprendre.</t>
+  </si>
+  <si>
+    <t>Un maître de l’alchimie qui utilise des extraits pour augmenter ses
+pouvoirs,des mutagènes pour améliorer ses capacités physiques et des
+bombes pour détruire ses ennemis.</t>
+  </si>
+  <si>
+    <t>Se lie à une mystérieuse créature appelée un eidolon et concentre ses pouvoirs sur le lien
+qu’il entretient avec elle, afin d’améliorer cet étrange compagnon venu d’un autre monde.</t>
+  </si>
+  <si>
+    <t>Fléau des infidèles et chasseur d’horreurs qui traque tous les ennemis de la foi avec une sombre
+conviction et tout un arsenal de bénédictions divines.</t>
+  </si>
+  <si>
+    <t>Grâce aux mystères sacrés, canalise l’énergie divine à travers son corps et son âme,
+mais le prix à payer est terrifiant.</t>
+  </si>
+  <si>
+    <t>Rôde à la frontière des lieux civilisés.Le puissant lien qu’elle 
+possède avec sa divinité protectrice lui permet de bénéficier 
+d’étranges pouvoirs mystiques par l’intermédiaire d’un familier
+bien spécial.</t>
+  </si>
+  <si>
+    <t>Allie les talents de mêlée à la magie profane,il manie sorts et armes
+comme combattant de première ligne et se montre capable de flamboyantes
+démonstrations de magie dont les autres classes sont bien incapables.</t>
+  </si>
+  <si>
+    <t>Un courageux guerrier monté sur son puissant destrier qui utilise sa ruse,son charme et la force
+de ses armes pour se rallier des compagnons et atteindre ses objectifs.</t>
+  </si>
+  <si>
+    <t>Un combattant rare,connu pour préférer l'art mystérieux de la poudre 
+noire aux arcs et aux lames traditionnelles.</t>
+  </si>
+  <si>
+    <t>Un guerrier discipliné avec un sens de l'honneur et une volonté aussi
+développés que ses talents de combattant.</t>
+  </si>
+  <si>
+    <t>Mêlant les coups précis du roublard avec l’entraînement spécifique du rôdeur, le tueur traque 
+ses ennemis avec une efficacité redoutable.</t>
+  </si>
+  <si>
+    <t>Le scalde partage sa fureur par ses chants aussi bien que ses actes et
+traduit la rage qui bouillonne dans le coeur du barbare dans ses représentations
+de barde pour inspirer le même sentiment chez les autres.</t>
+  </si>
+  <si>
+    <t>Alliant la frénésie du barbare avec la puissance du lignage de l’ensorceleur,
+le sanguin fait appel à ses pouvoirs innés pour se doter de facultés extraordinaires.</t>
+  </si>
+  <si>
+    <t>Mêlant la puissance de l’ensorceleur avec la polyvalence du magicien,
+l’arcaniste puise dans un réservoir de pouvoir pour plier la magie à sa volonté.</t>
+  </si>
+  <si>
+    <t>Le bretteur combine les prouesses du guerrier avec la détermination du pistolier pour devenir un
+ combattant spécialisé dans les acrobaties au corps à corps.</t>
+  </si>
+  <si>
+    <t>Le chaman puise dans la puissance divine de l’oracle et lance des maléfices de sorcière pour entrer
+en communion avec son esprit animal et détruire ses ennemis.</t>
+  </si>
+  <si>
+    <t>Le druide et le rôdeur ont tous deux un compagnon animal mais le chasseur développe
+cette relation au maximum et forme un duo redoutable avec son féroce allié.</t>
+  </si>
+  <si>
+    <t>Entre la ruse du roublard et les prouesses magiques de l’alchimiste, l’enquêteur n’a pas son pareil
+pour résoudre les problèmes.</t>
+  </si>
+  <si>
+    <t>Le lutteur se concentre sur le combat à mains nues et associe la maîtrise martiale du moine à
+l’entraînement spécialisé du guerrier.</t>
+  </si>
+  <si>
+    <t>Le prêtre combattant conjugue la puissance divine du prêtre et les compétences martiales du
+guerrier pour affronter les ennemis de sa religion.</t>
+  </si>
+  <si>
+    <t>Maîtres des éléments, les cinétistes exercent un pouvoir étrange et difficilement contrôlable alors
+que leur enveloppe corporelle peine à contenir la puissance rugissante des plans élémentaires.</t>
+  </si>
+  <si>
+    <t>Experts du mentalisme et menteurs invétérés, les hypnotiseurs utilisent leur regard inquiétant
+pour affaiblir leurs ennemis et implantent des inductions hypnotiques dans l’esprit de leurs alliés
+pour les préparer aux situations désavantageuses.L’hypnotiseur occupe le même rôle de soutien 
+d’un barde mais, au lieu de renforcer et de protéger ses alliés, il affaiblit et neutralise ses ennemis.</t>
+  </si>
+  <si>
+    <t>Dans le plan Astral,des entités de pensée pure prennent forme et vie grâce aux histoires de celles
+qui les ont précédées.Le médium canalise ces esprits légendaires, les versions idéalisées des 
+protagonistes à l’origine de ces histoires, et exploite les divers pouvoirs de ces esprits pour modifier
+les siens et remplir les fonctions nécessaires à son groupe.</t>
+  </si>
+  <si>
+    <t>Détenteur de connaissances ésotériques mais toujours étroitement rattaché au monde physique et
+à ses privilèges, les occultistes accèdent à la magie grâce à la puissance de leurs instruments.
+Ceux-ci peuvent être des objets magiques, voire des objets ordinaires mais importants d’un point
+de vue psychique, comme le doigt squelettique d’un saint, une dague utilisée lors de 99 sacrifices
+rituels ou un collier autrefois porté par la mère de l’occultiste.</t>
+  </si>
+  <si>
+    <t>Redoutables et énigmatiques, les psychistes sont les principaux lanceurs de sorts du monde occulte
+et les seuls capables de lancer certains sortilèges psychiques particulièrement puissants.</t>
+  </si>
+  <si>
+    <t>Quand des émotions fortes empêchent les morts de quitter le monde des mortels, ils sombrent
+inévitablement dans le plan de l’Énergie négative qui les corrompt en les transformant en
+morts-vivants. Un spirite retient l’un de ces esprits avant la fin de sa transformation et lui fournit
+un refuge sûr en échange de son aide précieuse.</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,14 +375,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -221,7 +438,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="classes">
         <xsd:complexType>
@@ -232,6 +449,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nom" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="pret" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="dVie" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="description" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -240,27 +458,30 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="classes_Mappage" RootElement="classes" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="classes_Mappage" RootElement="classes" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:D40" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:D40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:E40" tableType="xml" totalsRowShown="0" dataDxfId="4" connectionId="2">
+  <autoFilter ref="B2:E40"/>
   <sortState ref="B3:H6">
     <sortCondition ref="B2:B30"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" uniqueName="nom" name="Classe">
-      <xmlColumnPr mapId="2" xpath="/classes/classe/nom" xmlDataType="string"/>
+  <tableColumns count="4">
+    <tableColumn id="1" uniqueName="nom" name="Classe" dataDxfId="3">
+      <xmlColumnPr mapId="3" xpath="/classes/classe/nom" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="pret" name="prêt">
-      <xmlColumnPr mapId="2" xpath="/classes/classe/pret" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="pret" name="prêt" dataDxfId="2">
+      <xmlColumnPr mapId="3" xpath="/classes/classe/pret" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="dVie" name="dVie/niv">
-      <xmlColumnPr mapId="2" xpath="/classes/classe/dVie" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="dVie" name="dVie/niv" dataDxfId="1">
+      <xmlColumnPr mapId="3" xpath="/classes/classe/dVie" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="description" name="Description" dataDxfId="0">
+      <xmlColumnPr mapId="3" xpath="/classes/classe/description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -564,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,9 +796,10 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -585,425 +807,542 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="66" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
